--- a/routerGenerator/路由汇总表.xlsx
+++ b/routerGenerator/路由汇总表.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -506,167 +506,175 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>/cms/h5/api/rights/getRightsList</v>
+        <v>/cms/h5/test/deleteSupervisor</v>
       </c>
       <c r="B16" t="str">
-        <v>/^\/getRightsList\/?$/i</v>
+        <v>/^\/cms\/h5\/test\/deleteSupervisor\/?$/i</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>/cms/h5/api/rights/findRightsById</v>
+        <v>/cms/h5/api/rights/getRightsList</v>
       </c>
       <c r="B17" t="str">
-        <v>/^\/findRightsById\/?$/i</v>
+        <v>/^\/getRightsList\/?$/i</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>/cms/h5/api/rights/deleteRights</v>
+        <v>/cms/h5/api/rights/findRightsById</v>
       </c>
       <c r="B18" t="str">
-        <v>/^\/deleteRights\/?$/i</v>
+        <v>/^\/findRightsById\/?$/i</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>/cms/h5/api/rights/createRights</v>
+        <v>/cms/h5/api/rights/deleteRights</v>
       </c>
       <c r="B19" t="str">
-        <v>/^\/createRights\/?$/i</v>
+        <v>/^\/deleteRights\/?$/i</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>/cms/h5/api/rights/modifyRights</v>
+        <v>/cms/h5/api/rights/createRights</v>
       </c>
       <c r="B20" t="str">
-        <v>/^\/modifyRights\/?$/i</v>
+        <v>/^\/createRights\/?$/i</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>/cms/h5/api/rights/getRightsCode</v>
+        <v>/cms/h5/api/rights/modifyRights</v>
       </c>
       <c r="B21" t="str">
-        <v>/^\/getRightsCode\/?$/i</v>
+        <v>/^\/modifyRights\/?$/i</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>/cms/h5/api/logs/server/search</v>
+        <v>/cms/h5/api/rights/getRightsCode</v>
       </c>
       <c r="B22" t="str">
-        <v>/^\/server\/search\/?$/i</v>
+        <v>/^\/getRightsCode\/?$/i</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>/cms/h5/api/logs/server/download</v>
+        <v>/cms/h5/api/logs/server/search</v>
       </c>
       <c r="B23" t="str">
-        <v>/^\/server\/download\/?$/i</v>
+        <v>/^\/server\/search\/?$/i</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>/cms/h5/api/logs/server/delete</v>
+        <v>/cms/h5/api/logs/server/download</v>
       </c>
       <c r="B24" t="str">
-        <v>/^\/server\/delete\/?$/i</v>
+        <v>/^\/server\/download\/?$/i</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>/cms/h5/api/logs/user/search</v>
+        <v>/cms/h5/api/logs/server/delete</v>
       </c>
       <c r="B25" t="str">
-        <v>/^\/user\/search\/?$/i</v>
+        <v>/^\/server\/delete\/?$/i</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>/cms/h5/api/system/config/search</v>
+        <v>/cms/h5/api/logs/user/search</v>
       </c>
       <c r="B26" t="str">
-        <v>/^\/config\/search\/?$/i</v>
+        <v>/^\/user\/search\/?$/i</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>/cms/h5/api/system/group/search</v>
+        <v>/cms/h5/api/system/config/search</v>
       </c>
       <c r="B27" t="str">
-        <v>/^\/group\/search\/?$/i</v>
+        <v>/^\/config\/search\/?$/i</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>/cms/h5/api/system/group/create</v>
+        <v>/cms/h5/api/system/group/search</v>
       </c>
       <c r="B28" t="str">
-        <v>/^\/group\/create\/?$/i</v>
+        <v>/^\/group\/search\/?$/i</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>/cms/h5/api/system/group/modify</v>
+        <v>/cms/h5/api/system/group/create</v>
       </c>
       <c r="B29" t="str">
-        <v>/^\/group\/modify\/?$/i</v>
+        <v>/^\/group\/create\/?$/i</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>/cms/h5/api/system/group/details</v>
+        <v>/cms/h5/api/system/group/modify</v>
       </c>
       <c r="B30" t="str">
-        <v>/^\/group\/details\/?$/i</v>
+        <v>/^\/group\/modify\/?$/i</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>/v2/api-docs</v>
+        <v>/cms/h5/api/system/group/details</v>
       </c>
       <c r="B31" t="str">
-        <v>/^\/v2\/api-docs\/?$/i</v>
+        <v>/^\/group\/details\/?$/i</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>/swagger-resources$</v>
+        <v>/v2/api-docs</v>
       </c>
       <c r="B32" t="str">
-        <v>/^\/swagger-resources$\/?$/i</v>
+        <v>/^\/v2\/api-docs\/?$/i</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>/swagger-resources/configuration/ui$</v>
+        <v>/swagger-resources$</v>
       </c>
       <c r="B33" t="str">
-        <v>/^\/swagger-resources\/configuration\/ui$\/?$/i</v>
+        <v>/^\/swagger-resources$\/?$/i</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>/swagger-resources/configuration/security$</v>
+        <v>/swagger-resources/configuration/ui$</v>
       </c>
       <c r="B34" t="str">
-        <v>/^\/swagger-resources\/configuration\/security$\/?$/i</v>
+        <v>/^\/swagger-resources\/configuration\/ui$\/?$/i</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
+        <v>/swagger-resources/configuration/security$</v>
+      </c>
+      <c r="B35" t="str">
+        <v>/^\/swagger-resources\/configuration\/security$\/?$/i</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
         <v>/swagger-ui/$</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B36" t="str">
         <v>/^\/swagger-ui\/$\/?$/i</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B36"/>
   </ignoredErrors>
 </worksheet>
 </file>